--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_8_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_8_genetic_schedule.xlsx
@@ -518,237 +518,235 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>HI 209 - History
+2E
+Room 173</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>SE 319 - Software Engineering
+2A
+Room 139</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>ETH 437 - Ethics
+3E
+Room 237</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>FM 423 - Financial Modeling
+3C
+Room 410</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>ROB 409 - Robotics
+3B
+Room 185</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>ROB 409 - Robotics
+3B
+Room 205</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>FM 423 - Financial Modeling
+3C
+Room 218</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>MK 305 - Marketing
+2C
+Room 35</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>SE 319 - Software Engineering
 2A
 Room 31</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>SE 319 - Software Engineering
-2A
-Room 139</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>ETH 437 - Ethics
-3E
-Room 237</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>FM 423 - Financial Modeling
-3C
-Room 410</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>MK 305 - Marketing
-2C
-Room 153</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>HI 209 - History
-2E
-Room 173</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>ROB 409 - Robotics
-3B
-Room 185</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>MK 305 - Marketing
-2C
-Room 35</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>FM 423 - Financial Modeling
-3C
-Room 218</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -757,6 +755,8 @@
         </is>
       </c>
       <c r="B25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -764,6 +764,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
+      <c r="D26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -773,16 +774,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B25"/>
+  <mergeCells count="10">
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_8_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_8_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +91,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,13 +543,6 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>HI 209 - History
-2E
-Room 173</t>
-        </is>
-      </c>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -539,7 +550,6 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -547,7 +557,6 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -555,7 +564,6 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -563,13 +571,6 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>SE 319 - Software Engineering
-2A
-Room 139</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -577,7 +578,6 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -606,11 +606,20 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>ETH 437 - Ethics
-3E
-Room 237</t>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>A2 IS 314 - Web Based Programming and Application
+3A
+Room 310
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>A2 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
         </is>
       </c>
     </row>
@@ -620,7 +629,8 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -628,13 +638,8 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>FM 423 - Financial Modeling
-3C
-Room 410</t>
-        </is>
-      </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -642,7 +647,22 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>A1 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>A1 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -650,13 +670,8 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>ROB 409 - Robotics
-3B
-Room 185</t>
-        </is>
-      </c>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -664,7 +679,8 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -672,7 +688,6 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -680,7 +695,6 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -695,11 +709,12 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>ROB 409 - Robotics
-3B
-Room 205</t>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>A1 IS 314 - Web Based Programming and Application
+3A
+Room 303
+Emp: 8</t>
         </is>
       </c>
     </row>
@@ -709,7 +724,7 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="4" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -717,14 +732,7 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>FM 423 - Financial Modeling
-3C
-Room 218</t>
-        </is>
-      </c>
+      <c r="C23" s="4" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -732,21 +740,7 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>MK 305 - Marketing
-2C
-Room 35</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>SE 319 - Software Engineering
-2A
-Room 31</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n"/>
+      <c r="C24" s="4" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -754,9 +748,6 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -764,7 +755,6 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -774,17 +764,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="5">
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="C21:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
